--- a/nsop_BigObject_NTUST_Data_4018.xlsx
+++ b/nsop_BigObject_NTUST_Data_4018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\iCloudDrive\KULYEAH\lab\naskah\Thesis\File thesis nsop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC9409B-3832-4E9A-9C41-8FC0C9A187C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F387781-FAEC-4E6D-A473-C7F55FFE2868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3735" windowWidth="17805" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="3720" windowWidth="17805" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM_info" sheetId="1" r:id="rId1"/>
@@ -1676,7 +1676,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1736,7 @@
         <v>27.668181556977501</v>
       </c>
       <c r="C2">
-        <v>18.444218515250402</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -1780,7 +1780,7 @@
         <v>28.553621199999998</v>
       </c>
       <c r="C3">
-        <v>17.579544029402999</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1824,7 +1824,7 @@
         <v>27.343547910567651</v>
       </c>
       <c r="C4">
-        <v>14.205715808308399</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1956,7 +1956,7 @@
         <v>26.768052526088699</v>
       </c>
       <c r="C7">
-        <v>14.049341374504101</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -2000,7 +2000,7 @@
         <v>27.535751387676729</v>
       </c>
       <c r="C8">
-        <v>17.837985890347699</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
